--- a/emissions/slca/bea/ces/IO-CEcrosswalk.xlsx
+++ b/emissions/slca/bea/ces/IO-CEcrosswalk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="298">
   <si>
     <t xml:space="preserve">IO</t>
   </si>
@@ -848,9 +848,6 @@
   </si>
   <si>
     <t xml:space="preserve">Truck transportation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipeline transportation</t>
   </si>
   <si>
     <t xml:space="preserve">Scenic and sightseeing transportation and support activities for transportation</t>
@@ -926,7 +923,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -948,139 +945,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1088,23 +962,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1128,54 +987,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1187,90 +998,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1281,8 +1016,8 @@
   </sheetPr>
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B241" activeCellId="0" sqref="B241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A224" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A237" activeCellId="0" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3182,7 +2917,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>182</v>
@@ -3190,7 +2925,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>185</v>
@@ -3198,7 +2933,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>185</v>
@@ -3206,7 +2941,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>159</v>
@@ -3214,7 +2949,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>159</v>
@@ -3222,7 +2957,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>159</v>
@@ -3230,7 +2965,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>159</v>
@@ -3238,7 +2973,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>159</v>
@@ -3246,7 +2981,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>159</v>
@@ -3254,7 +2989,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>184</v>
@@ -3262,7 +2997,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>33</v>
@@ -3270,7 +3005,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>185</v>
@@ -3278,7 +3013,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>28</v>
@@ -3286,7 +3021,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>28</v>
@@ -3294,7 +3029,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>148</v>
@@ -3302,7 +3037,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>148</v>
@@ -3310,7 +3045,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>148</v>
@@ -3318,7 +3053,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>159</v>
@@ -3326,7 +3061,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>159</v>
@@ -3334,7 +3069,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>159</v>
@@ -3342,7 +3077,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>39</v>
@@ -3350,7 +3085,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>148</v>
@@ -3358,7 +3093,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>33</v>
